--- a/sniper/Sniper - Apoio.xlsx
+++ b/sniper/Sniper - Apoio.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comandos execução" sheetId="2" r:id="rId1"/>
-    <sheet name="não usar" sheetId="1" r:id="rId2"/>
+    <sheet name="slowdonw" sheetId="3" r:id="rId2"/>
+    <sheet name="não usar" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -101,9 +102,6 @@
     <t>CHOLESKY</t>
   </si>
   <si>
-    <t>../../run-sniper ./CHOLESKY tk14.0 &gt; sniper-result-cholesky.txt</t>
-  </si>
-  <si>
     <t>../../run-sniper ./RADIX &gt; sniper-result-radix.txt</t>
   </si>
   <si>
@@ -120,13 +118,43 @@
   </si>
   <si>
     <t xml:space="preserve">acessar a pasta "extra_programs" </t>
+  </si>
+  <si>
+    <t>-tk14.O.txt</t>
+  </si>
+  <si>
+    <t>-d750.O.txt</t>
+  </si>
+  <si>
+    <t>../../run-sniper ./CHOLESKY input/d750.O &gt; sniper-result-CHOLESKY-d750.O.txt</t>
+  </si>
+  <si>
+    <t>../../run-sniper ./CHOLESKY input/tk14.O &gt; sniper-result-CHOLESKY-tk14.O.txt</t>
+  </si>
+  <si>
+    <t>BARNES</t>
+  </si>
+  <si>
+    <t>../../run-sniper ./BARNES input &gt; sniper-result-BARNES.txt</t>
+  </si>
+  <si>
+    <t>radix</t>
+  </si>
+  <si>
+    <t>cholesky tk14.0</t>
+  </si>
+  <si>
+    <t>cholesky d750.o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +183,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +233,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,21 +545,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="59.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="7" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -526,13 +568,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,7 +617,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G19" si="1">CONCATENATE("sniper-result-",B3,C3)</f>
+        <f t="shared" ref="G3:G18" si="1">CONCATENATE("sniper-result-",B3,C3)</f>
         <v>sniper-result-dvfs.txt</v>
       </c>
     </row>
@@ -845,43 +887,91 @@
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>sniper-result-RADIX</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+        <v>sniper-result-RADIX.txt</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>sniper-result-CHOLESKY</v>
+        <f>CONCATENATE("sniper-result-",B19,C19)</f>
+        <v>sniper-result-CHOLESKY-tk14.O.txt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f>CONCATENATE("sniper-result-",B20,C20)</f>
+        <v>sniper-result-CHOLESKY-d750.O.txt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f>CONCATENATE("sniper-result-",B21,C21)</f>
+        <v>sniper-result-BARNES.txt</v>
       </c>
     </row>
   </sheetData>
@@ -890,6 +980,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2430</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2585</v>
+      </c>
+      <c r="D2" s="10">
+        <f>B2/C2</f>
+        <v>0.94003868471953578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2906</v>
+      </c>
+      <c r="C3" s="9">
+        <v>31135</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
+        <v>9.3335474546330496E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9">
+        <v>42077</v>
+      </c>
+      <c r="C4" s="9">
+        <v>158097</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26614673270207528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>249</v>
+      </c>
+      <c r="C5" s="9">
+        <v>276</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.90217391304347827</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>

--- a/sniper/Sniper - Apoio.xlsx
+++ b/sniper/Sniper - Apoio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="comandos execução" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -184,7 +184,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -233,14 +233,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -983,76 +983,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="9">
-        <v>2430</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2585</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="11">
+        <v>126.044</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D2" s="11">
         <f>B2/C2</f>
-        <v>0.94003868471953578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+        <v>3406.5945945945946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9">
-        <v>2906</v>
-      </c>
-      <c r="C3" s="9">
-        <v>31135</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="11">
+        <v>134.32599999999999</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D3" s="11">
         <f t="shared" ref="D3:D5" si="0">B3/C3</f>
-        <v>9.3335474546330496E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+        <v>10332.76923076923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="9">
-        <v>42077</v>
-      </c>
-      <c r="C4" s="9">
-        <v>158097</v>
-      </c>
-      <c r="D4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.26614673270207528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="11">
+        <v>763.81</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>11750.923076923076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
-        <v>249</v>
-      </c>
-      <c r="C5" s="9">
-        <v>276</v>
-      </c>
-      <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.90217391304347827</v>
+      <c r="B5" s="11">
+        <v>4.875</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>243.75</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/sniper/Sniper - Apoio.xlsx
+++ b/sniper/Sniper - Apoio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="comandos execução" sheetId="2" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
